--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512237.3719007483</v>
+        <v>508977.5121887507</v>
       </c>
     </row>
     <row r="7">
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>214.0546037115792</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>228.2791569798279</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>222.0152160730528</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>220.9472418750054</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>222.1041760324343</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>224.4102714990878</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>124.4392452907996</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>133.742223194437</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>133.0424782891216</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>135.7019048619077</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>124.7393437063989</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>136.5563672569107</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>129.1268734863555</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>136.7413260305349</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,10 +8140,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>131.7205602141891</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>135.5896671967105</v>
       </c>
       <c r="N4" t="n">
         <v>124.4287531140874</v>
@@ -8219,16 +8219,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8313,7 +8313,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,7 +8380,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8459,7 +8459,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8623,10 +8623,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
         <v>56.54227989916996</v>
@@ -9644,13 +9644,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
         <v>46.34579576917247</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
         <v>26.75787480980772</v>
@@ -9808,10 +9808,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.3588981658848</v>
+        <v>14.35889816588482</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23437,7 +23437,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
         <v>151.3616578248528</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23674,7 +23674,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23911,7 +23911,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24148,7 +24148,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24385,7 +24385,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24622,7 +24622,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24859,7 +24859,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25096,7 +25096,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25333,7 +25333,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25570,7 +25570,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25807,7 +25807,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26044,7 +26044,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>982360.1038108454</v>
+        <v>982360.1038108455</v>
       </c>
     </row>
     <row r="5">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491568.0692279836</v>
+        <v>491568.0692279838</v>
       </c>
       <c r="C2" t="n">
-        <v>491610.8809975433</v>
+        <v>491610.880997543</v>
       </c>
       <c r="D2" t="n">
-        <v>491615.8761375864</v>
+        <v>491615.8761375862</v>
       </c>
       <c r="E2" t="n">
         <v>143464.4388982991</v>
@@ -26329,7 +26329,7 @@
         <v>143464.4388982991</v>
       </c>
       <c r="H2" t="n">
-        <v>143464.4388982992</v>
+        <v>143464.4388982991</v>
       </c>
       <c r="I2" t="n">
         <v>143464.4388982991</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807397</v>
+        <v>11372.62968807417</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>203044.1822108269</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>452825.7486769923</v>
+        <v>453914.7920806004</v>
       </c>
       <c r="C4" t="n">
-        <v>381202.731793032</v>
+        <v>381670.0168655998</v>
       </c>
       <c r="D4" t="n">
-        <v>373175.6561023303</v>
+        <v>373572.6966267997</v>
       </c>
       <c r="E4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="F4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="G4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="H4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="I4" t="n">
-        <v>25176.19445408718</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="J4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="K4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="L4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="M4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="N4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="O4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
       <c r="P4" t="n">
-        <v>25176.19445408717</v>
+        <v>25427.98653295575</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33884.88516240443</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26476,40 +26476,40 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6515.194299487077</v>
+        <v>-7604.237703095168</v>
       </c>
       <c r="C6" t="n">
-        <v>-131381.8378374625</v>
+        <v>-131849.1229100304</v>
       </c>
       <c r="D6" t="n">
-        <v>56846.48854855843</v>
+        <v>56449.44802408887</v>
       </c>
       <c r="E6" t="n">
-        <v>63895.41961368042</v>
+        <v>63643.62753481182</v>
       </c>
       <c r="F6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="G6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="H6" t="n">
-        <v>111316.1418809547</v>
+        <v>111064.349802086</v>
       </c>
       <c r="I6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="J6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="K6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="L6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="M6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="N6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="O6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
       <c r="P6" t="n">
-        <v>111316.1418809546</v>
+        <v>111064.349802086</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>11.80207166992784</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>11.80207166992784</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>222.9779664560664</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -27397,10 +27397,10 @@
         <v>338.9889007429445</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>208.6467463822455</v>
       </c>
       <c r="J2" t="n">
-        <v>7.922410639454649</v>
+        <v>7.922410639454577</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.867117437475873</v>
+        <v>4.867117437475781</v>
       </c>
       <c r="R2" t="n">
-        <v>146.8887686565825</v>
+        <v>146.8887686565824</v>
       </c>
       <c r="S2" t="n">
         <v>207.9389049302515</v>
@@ -27476,7 +27476,7 @@
         <v>111.9902728985985</v>
       </c>
       <c r="I3" t="n">
-        <v>88.5226115060478</v>
+        <v>88.52261150604778</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.58170088321393</v>
+        <v>98.5817008832139</v>
       </c>
       <c r="S3" t="n">
         <v>171.2116449385346</v>
@@ -27558,10 +27558,10 @@
         <v>154.8104543848956</v>
       </c>
       <c r="J4" t="n">
-        <v>91.85451271704937</v>
+        <v>91.85451271704935</v>
       </c>
       <c r="K4" t="n">
-        <v>19.79686107274064</v>
+        <v>19.79686107274059</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1474282515537739</v>
+        <v>0.1474282515537277</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.37993042953531</v>
+        <v>84.37993042953528</v>
       </c>
       <c r="R4" t="n">
         <v>176.3364561889816</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -28032,7 +28032,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0.04744551425096614</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0.4859013728227071</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>1.829143188160374</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>4.026878715157941</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>6.035247333401339</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>7.487257990159345</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>8.331017154219964</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>8.465821721585522</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>7.994035389252477</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>6.82272425618175</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>5.123581777069023</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>2.980349284567254</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>1.081164655993892</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0.2076927386336044</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0.00379564114007729</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0.02538558812022214</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0.2451713378979349</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0.8740213453672974</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>2.398381375867128</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>4.099215779922011</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>5.511901490752619</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>6.43212906011067</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>6.602368376934441</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>6.03987718753373</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>4.8475339279747</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>3.240448055486602</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>1.576133269429231</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0.4715261653032486</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0.1023217345722988</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0.001670104481593562</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0.02128242432282068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0.1892200998883513</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0.6400205423626441</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>1.504667399623422</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>2.472630753142257</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>3.164116067049178</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>3.336116750894518</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>3.256791351145826</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>3.008173939738329</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>2.574012483552784</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>1.782112822159103</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0.9569351881879189</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0.3708946129713385</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0.09093399483387017</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0.001160859508517493</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,7 +31291,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31300,7 +31300,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31315,7 +31315,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31385,7 +31385,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31452,7 +31452,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31464,13 +31464,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31522,7 +31522,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31546,7 +31546,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31555,7 +31555,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,7 +31595,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31628,7 +31628,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31680,7 +31680,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31695,13 +31695,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31756,16 +31756,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31783,13 +31783,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31856,22 +31856,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31993,16 +31993,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32020,13 +32020,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32093,22 +32093,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32230,16 +32230,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32257,13 +32257,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32330,22 +32330,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32467,16 +32467,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32494,13 +32494,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32567,22 +32567,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32707,7 +32707,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
@@ -32731,13 +32731,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32786,7 +32786,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32816,7 +32816,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
         <v>0.04525771959877963</v>
@@ -32859,13 +32859,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
         <v>67.00516676073742</v>
@@ -32880,10 +32880,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
         <v>48.29300399320443</v>
@@ -32941,16 +32941,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32968,13 +32968,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33041,22 +33041,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33178,16 +33178,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33205,13 +33205,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33278,22 +33278,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33415,16 +33415,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33442,13 +33442,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33515,22 +33515,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33652,16 +33652,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33679,13 +33679,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33752,22 +33752,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33889,16 +33889,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33916,13 +33916,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33989,22 +33989,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34126,16 +34126,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34153,13 +34153,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34226,22 +34226,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34363,16 +34363,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34390,13 +34390,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34463,22 +34463,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
